--- a/outcome/appendix/data/PHSMs/Scarlet fever.xlsx
+++ b/outcome/appendix/data/PHSMs/Scarlet fever.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,16 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">猩红热</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
   </si>
 </sst>
 </file>
@@ -403,6 +412,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -424,10 +439,16 @@
         <v>10619.8903625068</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>6352</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2506.40787410502</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -450,10 +471,16 @@
         <v>6616.89458062199</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>580</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3603.09020382474</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +503,16 @@
         <v>9027.89875917932</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>444</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5960.1223754131</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -502,10 +535,16 @@
         <v>10936.9026502159</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>442</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7809.48137847166</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +567,16 @@
         <v>13989.455794327</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>562</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10721.3565372541</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +599,16 @@
         <v>14166.5304402542</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>677</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10776.4234536634</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -580,10 +631,16 @@
         <v>9139.45629076902</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>763</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5660.96633219251</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -606,10 +663,16 @@
         <v>6009.01965967316</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>789</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2503.71844682935</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -632,10 +695,16 @@
         <v>6958.82012909082</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>877</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3365.24262726027</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +727,16 @@
         <v>8631.8178430622</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>1102</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4813.14623302657</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -684,10 +759,16 @@
         <v>12902.5024530271</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>1925</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8260.79878687337</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -710,10 +791,16 @@
         <v>15673.6143507466</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>2693</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10263.8997651364</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -736,10 +823,16 @@
         <v>12071.2900627885</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>2502</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6698.4098227909</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -762,10 +855,16 @@
         <v>7176.36442539767</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>989</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3183.68776462716</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -788,10 +887,16 @@
         <v>9157.42016833052</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>1819</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4290.82893810888</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -814,10 +919,16 @@
         <v>11566.1128631484</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>2790</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5713.70643392735</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -840,10 +951,16 @@
         <v>15035.9486217163</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>4124</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7844.5119062848</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -866,10 +983,16 @@
         <v>15117.2917743213</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>4165</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7883.14343309113</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -892,10 +1015,16 @@
         <v>9951.01378466294</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>2430</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4451.28261598421</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -918,10 +1047,16 @@
         <v>6809.31892921704</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>1152</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2587.38925243067</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -944,10 +1079,16 @@
         <v>7552.84812652584</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>1202</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3280.85083319857</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -970,10 +1111,16 @@
         <v>9602.35150139248</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>1634</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4898.33117561919</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -996,10 +1143,16 @@
         <v>14083.144155699</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>2717</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8296.11598423102</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1022,10 +1175,16 @@
         <v>16805.1678065243</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>3983</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9752.13696251655</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1048,10 +1207,16 @@
         <v>13086.8605993089</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>3232</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6745.01382468166</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1074,10 +1239,16 @@
         <v>7523.17516832322</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>990</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3387.7027794167</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1100,10 +1271,16 @@
         <v>9752.23926355884</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>1848</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4746.7232046257</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1126,10 +1303,16 @@
         <v>11888.6756612754</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>1639</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7088.06754233362</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1152,10 +1335,16 @@
         <v>14721.4777622522</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>2588</v>
+      </c>
+      <c r="I30" t="n">
+        <v>8970.47693960732</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1178,10 +1367,16 @@
         <v>15218.4802618377</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>2896</v>
+      </c>
+      <c r="I31" t="n">
+        <v>9159.00517091895</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1204,10 +1399,16 @@
         <v>10512.9000017376</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>1758</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5591.26337309699</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1230,10 +1431,16 @@
         <v>7217.74046567407</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>940</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3114.0488129758</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1256,10 +1463,16 @@
         <v>8119.19067043862</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>1020</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3935.48027465535</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1282,10 +1495,16 @@
         <v>10097.3086826558</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>1383</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5550.59190228453</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1308,10 +1527,16 @@
         <v>14745.9270342519</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>1896</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9686.20807904814</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
